--- a/biology/Zoologie/Grytviken/Grytviken.xlsx
+++ b/biology/Zoologie/Grytviken/Grytviken.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Grytviken est une ancienne station baleinière située en Géorgie du Sud et non loin de King Edward Point.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On doit au capitaine norvégien Carl Anton Larsen la fondation de Grytviken, le 16 novembre 1904. Niché sur les rives de l'île montagneuse de Géorgie du Sud, l'endroit était déjà fréquenté auparavant par des chasseurs de baleines. Grytviken porte un nom suédois signifiant « baie des pots » (en norvégien : Grytvika), en référence aux pots utilisés pour transporter la graisse de phoque.
 En 1922, l'explorateur britannique Sir Ernest Shackleton, en route vers l'Antarctique, y décède d'une crise cardiaque et est inhumé sur place, à la demande de son épouse.
@@ -545,7 +559,9 @@
           <t>Économie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le village vit essentiellement de l'industrie de la pêche ; son existence est due à la prospérité de l'industrie baleinière. 
 Autrefois, le traitement des baleines se faisait sur l'île, qui était un haut lieu en la matière. Ce type d'industrie a disparu avec l'apparition de baleiniers sur lesquels il est possible de traiter les prises immédiatement. Officiellement, la fermeture du port a eu lieu en 1966. Une autre raison est avancée : la raréfaction des réserves naturelles de baleines, qui a rendu non viable le maintien d'un port de pêche de ce genre sur l'île. 
@@ -580,7 +596,9 @@
           <t>L'importance de King Edward Point</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'approvisionnement du village n'a rien d'évident, puisque l'île ne dispose d'aucune structure permettant l'atterrissage d'avions. Tout arrive donc par bateau ou par largage de colis. 
 Les navires débarquent à King Edward Point, où se trouvent également la poste - probablement l'une des plus méridionales du Royaume-Uni - l'hôtel Shackleton House et le bureau de douane. 
@@ -613,10 +631,12 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début du XXe siècle, l'alcool était en principe banni des ports de baleiniers, et en importer constituait un délit. Par conséquent, quelques personnes audacieuses ont décidé de fabriquer leur propre alcool. Un alambic est exposé au musée de l'île (voir ci-dessous). 
-L'île a également disposé de son propre cinéma, actuellement en ruine. L'île a eu un tremplin de saut à ski en bois[1].
+L'île a également disposé de son propre cinéma, actuellement en ruine. L'île a eu un tremplin de saut à ski en bois.
 Le premier pasteur à avoir desservi l'Église du Chasseur de baleines s'appelle Kristen Loken. Depuis 1931, le poste n'est plus pourvu.
 </t>
         </is>
@@ -646,7 +666,9 @@
           <t>Monuments, curiosités et faune</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La région de Grytviken passe pour être très photogénique notamment par la proximité du glacier Nordenskjöld. Grytviken qui disposait de nombreux bâtiments et ateliers en décrépitude (Patternmaker's Loft, Machine Shop) fut partiellement réhabilité et totalement sécurisé pour l'accueil de touristes. La station baleinière possède ainsi quelques intérêts tel : 
 l'église du Chasseur de baleines (en anglais : Whaler's Church), bâtiment en bois, préfabriqué en Norvège et ouvert au culte en 1913, qui possède une grande bibliothèque ;
@@ -686,7 +708,9 @@
           <t>Musée</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le village de Grytviken a son propre musée, le « Musée de la Géorgie du Sud », créé en 1992 à l'instigation de William Fullerton, gouverneur des îles Malouines, sis dans l'ancienne demeure du responsable du port baleinier, appelée « Managers Villa ». Le bâtiment a fait l'objet d'une restauration en 2005, c'est le seul bâtiment de la cité qui est entretenu. 
 Initialement, le musée était consacré uniquement à la chasse à la baleine. Depuis, il s'est diversifié. Datés des XVIIIe, XIXe et XXe siècles, les objets sont exposés dans des pièces à thème. Une d'elles est en outre consacrée au capitaine Larsen, une autre présente du mobilier ; dans une autre, on trouve des équipements de plongée. Enfin, on y découvre un ancien projecteur de cinéma, un alambic et un radar. 
